--- a/metrics/R2/average & upto/Fallo Cardiaco.xlsx
+++ b/metrics/R2/average & upto/Fallo Cardiaco.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4338591045077824</v>
+        <v>0.6328628337116488</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4338591045077824</v>
+        <v>0.6328628337116488</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4338591045077824</v>
+        <v>0.6328628337116488</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9967868237587846</v>
+        <v>0.9794360653715856</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9966932734098133</v>
+        <v>0.9793689887347409</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9966540615939727</v>
+        <v>0.9788410270729337</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9981937612161962</v>
+        <v>0.9616326040720005</v>
       </c>
       <c r="C4" t="n">
-        <v>0.998181599089079</v>
+        <v>0.96172249718681</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9981775981419889</v>
+        <v>0.9612310770941387</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.964919318948589</v>
+        <v>0.94852756196794</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9634769606982316</v>
+        <v>0.947966507753502</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9651146645871768</v>
+        <v>0.9513702420172131</v>
       </c>
     </row>
   </sheetData>
